--- a/result.xlsx
+++ b/result.xlsx
@@ -1,91 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8790" windowWidth="20385"/>
   </bookViews>
   <sheets>
-    <sheet name="meizhou" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="amount5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="yunfo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-05-14-00-36-47" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-05-14-00-38-36" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-05-14-00-42-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-05-14-00-42-27" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>BSNAP300J16110344</t>
-  </si>
-  <si>
-    <t>C4CD4510079B</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAu+Veo7JZLlOm2nYcNe3FF8R6zkUPz8iZIiAIisrG4gV35f5JwTp46N5BHqdn0IJ3trGLgNbGIS8NIdbdR4g7oMhENFts612SyLupEXRq0ygz8KRsaWLbznjkJFUuuKGU+shf3vyz0SNH8rwFS5RFEKqEKxEzS5dnyAsu56qRRF6mwkCRBbt5PrMkedHcOLWLtUMf9DPr7klKL9EJU6+Da4R+Dt/Y2oQWDh1nYjisbeMPUUHa57Xy6wW2mckzqzWOpJ6dT5QNrRxWcd0UI7lFSYQSc3On60DzlqBw9ku/4ofZbD6eySLtzj/VZg90Gn+mpeu6frtTQ62TcQGjc36cFQIDAQAB</t>
-  </si>
-  <si>
-    <t>BSNAP300J16090118</t>
-  </si>
-  <si>
-    <t>C4CD451002C1</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAzQUVCW3ySFe0/hsO4XvuYNIpQhrvHzzCcSTmT4rBze/pOYUYMmOeCPIZnyxP3uT0ROnmwAwK4sonpIobQnIv+c2wGcdyS1paY6c9BagnCQwoAf8kYvGAbAuK87TzsY8K0kSOlFUjp3pmEzUL9nkFGQflOCo/2PgdSclxRCtgvvR7sifq7RVfYMQ8fqo/7DGTIRHeR264z1ifMlplLA9wIptf0Hw8fmbbNQgJZp/dFfa42psL9W7IAWVLSurSGgkOteYFBWoOwIYRiNz7PanXgBvfmg4TNGV5Y+vNFzaWKWw2hDyJSMMkzYxOIEkowc4iBrI4nisuNIB9XA2iUERIqQIDAQAB</t>
-  </si>
-  <si>
-    <t>BSNAP300J16110177</t>
-  </si>
-  <si>
-    <t>C4CD451006F4</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA3ZPJgyG1MSUPCBKb/wyq1FYy1E7CFU/5slq+rEeZBPN9n0z1mHgWsF/7TpBOqk/K/pW4vv0bjHs4JJ/zYGf1iuW2+V3qGiAxoRLJDcu/C9ckXKu9qU0ZJOBtVl2hWyQIx+q/qC4m26zk6ql2SbYcIQQIeNSUWcKrb458SH/k7SlzPQ30Dr7fnOB7MIY6LyfDhkMapYPw/rbmCxuwAf1hAdzOOoocM1ExhFm8YSSQKyVkl0gl/5QZEXr6nLKUzjmNtJ+9UcHo9bPm+1s0ZzGgujz0gyqgdTkxal8JXgezGOW7/fzAfFVOjR4OeDx3JXTHf+4mgPhMjScEN+B4cCWL+QIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA5qVoF8T3ysyG5R6ubIV3QjyNa2DRYtW/KsMWu0XH0wCbOPHyZm1Mw94Cc4z9SOBVWgdP24lSAsHhLFODU5JbJU4goFqEpze0MCpwE0m1+vCQtMFmEKgEccF/hJ0czSGFXGjtb65cAEYPPNjqWAXT93z8mUk5bGlcKOtJXWNDG4yt2aWI05fWfYb0jtaxnZVuJ/1YfnxYtuHtAsc99i0AhkO64AK5OBFksdNvv0F0TEhcozUT/PJ+As1YaJg++MO336L5exyekxjlWCoRp3Z+BiBz3tadormsGyTEXKs66W3XEjYvlSECv6m2uhijX4m3TVcZO2EYwTUQGpGi2qHCNwIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEArWv2PqYOQAiCGnhKVQwAhTJlAQQepHyOHQM0QOa9ZkoyI6e14/2K/ZHPAe9cb/MLriAYBJzGNz8lWUirHRoOD5NbqG3yuRQ4b8X+QVOQO5389/4s0i6TCNru0raElp/B4sw5kQC0tvv1pREOYjq1fYP7UIxTeXSBHGu6nuXUL4M+jQbDqAJBNGfX31xQNhMSRGtAu5/jjTcfMtQErWvPVJuxZfNKSxhgRcqyIpn/kHuMbbNDVadZ9u0U0G6FCQEgyrMOAQLfJCK3EQqvcqD7xXPhwCXm1rJQERe5dVGhvo+Ht7WgIIRWd/MZXBsRStYLofSwPYqAGK/glDi02ImheQIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA16grz7ebyTPEPy3L+v3e7d6b3/PXJEcDobZAVwrOBd6MCkIVjxvsljIxHxM/96iYFMMsAHTOSwqbPDlrqH7sditEDejaSviD5y0ZpHG+9/VI6T84uUxh7yGZLcHwYBgaFYfqfq56nu4DDAeNtOsl6XlEgG3pEILQJSRGkVvKcFqx0r6++xM3KIY9pLpzvlX9NJ2LJwD1sNFR2s8ODjkhK3sGCUO3e3aBzgqk/Eorao08sJtPAJL7eUtAsfInaYdGg9jz301iqEARS0s/RfNOhQWN7aBrjcYtpLyyrKxUFi2nRwGu/dVODJsSD5r7iFblcgkQ/AbiB52Ze7u/+mp3BQIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEArLvlHNh3dyZd/LLnskkOrJY9cYm9JBSxhla0frrf7j+Fd5LflVkSxsIVBwSDNtzEIJ/vV9cnwdc304WArdiK6JhmyH7dg9zXLHlWp4vB6YVJMVwuCiLmJOMeVTVEIBbfl8Ka1lmiMuFOmgo+EIEeUjR36VRb0DbAVUQaLu9j036XmnQw9IWXI56I/rdtZCxjxB7+guldMVm5zra1FHxVQGdtTYypvuOGWzcoJvw74enF9OUCx05WWIql3cgVrSfFTvbG8oEibTONXz5NI0hIyvGNs9H3VZU9NXJvSGPvkCxUjUafy+vBP6zBKUowOWGtyVnMPeYZ1Dd6KheizGPSUwIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEArki1ofTy0FG0S4d1WaJ1GpBZmypBvIvo++Bb6MS7qbsSKwGbiVZs2y/ynXiAu3su1g6weSNdwBKdkhDRdwGfe4x8H7SVAumXnXdVCJJu/7xm/mFVXQ5HYsCOChMDQqc9PZ97v1cdJsexhuTwrJfU9nqb0O7Q0DQwV22CKho6RhiZweOgCre8oq2AJjN3mVCw8hCsgjNxsJOCOFOYvYdV0QG+R/UU1+Fb4k5Zl7ACbfjoMdr7lUPxXUezm4VO84Eq9pthj3hYUmf2O/mltYNbzBbIv9JX60hygr+ll3AHYL62OzwG19bTBNFGAleKNUeS/DcZ9jDkGRZTnTD2NegZewIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAvxGoWwDtOazrf4/mqfYxzsG7z2H/3w+PV62GdftrJrM0EC7tjgnZfeOaqE1vtsAmtqbSudTc/9Sal8DwiWAodlGFFMcNSNkraf7U4sh5XRGYEm3c3CbEtUkclOuuzbMvt6Uv/Idvkmq6HNBnFo9JM577mJZf+4Y0W4YGPUOA75CcspEzZ1EmDxpd6CNhKRV4Ya9MmSXzePkQCLTvUqqLe6odwmE04HXNeFm+YGE+Z5CWQImhWX8L5gwIEb77+b16zQQhKnD/Ntd/O/jBwOSKUJCsKxpshk5+hsTFHMu7XNTtP99kuR1abZbbFPEu3JG6uu+f1WGrnXIGWUDE07ppLwIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAzwnxM1R1FxRlyxVV2FgccINAHgCwmfROqf549oWIjQXxIQJ73/DBwsyuILIYrh2rhLHe1hi5r+ekdczdfA7li8mjSY2u4gevdGPNxmVKKmOdG/P8xvSw7lwfAfaNaj6cxzJDRqxN8iPcScZ5kXRGnQa5itThER/2geOIztKs4IwWLi5lY1mzMQ+jv/12uv8phKEgjn11UK1BZAEg1oKV/ulXFO5g1Uhm2VvV04PGqlVLMgSudzCGpWPkW9wR4PtDSsbbojHOhE8i1vHXJICOfZXlErIpkoCfwmBHyz8BgPQVIl36ikkgztu3Dpe1y61YXP0PCrnn+c6CVVSedvMFgwIDAQAB</t>
-  </si>
-  <si>
-    <t>BSNAP300J16090151</t>
-  </si>
-  <si>
-    <t>C4CD451002E2</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx6tdNfbFxL2mCebh6LpOuzIZPM3lghgxT99s883MD2SAiBWqJSk1buI/1BA7zYRmJAkGym4Pmv6rTJjihYzZfm5QK5itfiAWU2MsMXkkOYZnTlYkG7S/4mIbfCqyGM2TVISbfRlv9zhHDm40+2SkiECgWgUHtUH3Ae/VfzbTr+bGQg/QgG3MjAiuZwUlpXWkRVEIvFbUuvDxl2uHOdBEvbDea5VyHpJc/p8lvV69IvM5nUbMyfJhAKtNW+0oKMLmuDuLOSBk6Hyv9sZHWPZm98Ee4UPDLm3pf7GKgn8ur/jsisPhql+THwllmFZvMZBxAmLIJHwHyKBb5y0m3HV+MQIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAylz6Nxp91fsjG26UW4VO0S2hltFqAw35sSOkcxAdnLqiLYdxKRHkJygZwKHJawhxGmJitt6JAOoSOfBNWwt8SYwDk3JKOXlBelTAddcmr3iWXa+UlOxoER+PIyRHg7Tmw+rXV5bKg7miwbN1SN0swnmOW8augIHL7C5nduVnK77D0CuIyHQ6Y/WdqwQyqHX92aAH9I+2zSKJ0ZX/lEs2p7GSbpM6InmGUwbxSyvRAAH9neS1Yt1UBFTrfOtYCp3dCtsRp5Z5rFl1Ga+S+sBPINAJkgXnpBLDeKpVjJ9xKiPbu9IQAETIhSdh58C+C2vKFZ6vBfEEQZDXBwnfGTfjUwIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA00wbVLz8VHkvrlk9a/T+Q1mrpLYk1/n8WKobSnY965ja3H1BtTlz9cMJVJLwFKMzX6+8mVg6rQ3mbTaXJadHRTR84ou5qnoenpfJ8exuMVSJQpAOiuZqjpJDOatn8cBR0NECJpx9lkO6L/LnTPKq+S0CEgj+2eAznvZqVpvcWd93/0JliFaIrxqqd3jULqF93Yc0Scsufw4IwUma3PhYrSxNa5SUVio31LIm+fXAaVq7lUmytFZtQB8KFzLnCWlF6yeuMThKDs9kg5iaet2LGGQJkh2AY/npFRFyhAt/s+fp2APCQaNiY3pOf6VogakFTV3fyz/miIMH88dMSZNSLQIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA13TMZqLbBOZOdiOQ0u3zlqj8nQDmEZvn8bqkCi/cz9CGKb3Ve6IyiRDwpI27mg45E5N6bO8pxjLm5xJbv7UzKauAqOA9mzwszAEF3WVJs0CwRDDmXmD2Ofrmwpj6SldOSN9cirad2nBmEyrHr9YbDuS4i8kePX6EzTO5jidSgPmLJzWK2PxdGiXPyxnLekgdzQOnf41ozZ6wGdfoT9iZ7fqNMf7I+bymvXlGE5zN7k9oyi9ctbXOZTY08lGqwj/fsjS4yVDZsZWCfVzOBGtXzGDOJRMKVDDDbm9wnpEj5xx/IDRLYQuujMWf/3xA+8ObyT3Ej3LDnjd9fHdiEaMSKwIDAQAB</t>
-  </si>
-  <si>
-    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlmn90HcG+NwvTFF9hqp9jtqcyAbmo3zMYCQqbKxE+zBRLnoV9kMa/5VVdFr9zqzYbWVX5UK0JhRjtjCtz15seBN7QHV89R9FgaL5+taaX0Sp8J2m7j4ocWvedCMnA0WUvwhN5UJtMZrJP4h939EKoclPcKckT8Ez2XvNJR+MN956pqBe+xT99J4sTlE1lXmGHVmuyihYdtMn+IqZ59nC/R467JSKGS89fPG1LFU1xSktlNuQLimPy8K1skWuSMafTO2ksnLhEJwef7E7RxmqcqqWp4bmQWRV0Et19mvNruX7AMzYS1l7lg0JUDfMU8bczXCLBQaMeojUejZdwj0toQIDAQAB</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAzewjPWwZrXzghKxd1sB1Vvo9kynyzUGUe2tlEvT+9rEGh6lKcuLcp6hiCFF0wYVUBFTDYC9XYTNaPnMqCvYSAx9umZkWgM5CTaDkIS/YnXAApBMjTso5x+ZSQceDU5yYs4IVA82q1WckRsX/y3XvOYBqK8meReRBIOr9/6VHn4lyKuk/Db0KKNwXJ6bMgx3osJwtjDbehqQyoHEgKiCiLyPesSi0NtteoSaYnG6K/015dd8QnopISWXL0D/rgP9cEHcX2tg3idfzqNclEF4lkx020g7aUnB7ziILEIdSy1W7BvPVFDseQc1yaKCPLcXd4uFT69Udq5S6C/pYxMxX2wIDAQAB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAunvZetL5FIDuMdLSEgFC4t9hVaL64Gk2oKHWfKMTj/7t4ytf8TE5tCPHvDKwMYtMvBl3xXy4GIXSftWuo23rLCSFhuxnPrdsG71wqMpJRaX+vstc0ydjlkcMJLgJcWzxB6B/db5a8ZbPY2xh8dm8uaeHXg+fi9bThCXCu+ImaBZ5dw8sBo5GMK0mwgTHhJxaEHa5sgS8EK7rj8oA+RBY671OMWGtWLTA9p/D+nsGkCvh5VZbZaT5J07FqKyOyhAEn1x3JPsC+BPq159ny4yMnLRSzMqECWHVq98GgjCQyDv3aYIAYSa4R8CJXNteXS3PRqPxTwFwG6Zg9dN6jO5zDwIDAQAB</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAzEFwUtRu7X20v1pta4ur6vZq10virhHLeQqhfMB7VSUxE+1xI8fenp3R1Ka59sdPoNew0iAwMihd/PGmeI456ZDfM28tPk5ZTVyarWywBpqCHM66eLQI07g2mdTbPwIOke+DKH+LHbbSgvu6o03zn2fqFvcsbXNYhIu2rWKp5+btfDGK9/mtQIFoL7KPvcGQAVBggc9IrT6EstPR7ENtb1qT1ptLm3moBCSEdQu2VhQtta1hNC+bapMFxICL9tbUqklF50CQCCczuR+kT4V+1StHlhfsw65ZXENkdDixLjCBHIAsgvYu5KcrHDBqalBwHzJqZODJJmwmlGdJOxY1bwIDAQAB</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyZp+I02fs8JfhZr3bXiNeoWj2V0Sqz7mA85Jufazu6kZBAsCDEN1xdUZZF41pP66RoFEwxIUqsXTH6BdukOJn1t63hrQtvn7ize68/lptWdQxrP92CM6SyRDBKprnHWDUf623cbZO6MlPcr6jCAfSnkfXUzEoHCry9RViZ38Y2ycgSgIJEXKj6SfUOw99fOtKr+mIDzWHwVIWX6uu/1bPPYi6trFlZVyrjNrYOyaYi+NCQ0CsilpzEsTvlRld8GFEen3XxOOvNc/fN8xDzNOt2w9JQwrJ5bi5m4eRpbsCjyeAmsS7LNM6dS02tJd5rhgcSOZV+vp1huR7iCzf8yFZwIDAQAB</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAzC4tiMig7haUDpUBUFnI7VawZR6wBDZnSmqbZl9HIAGA+atpCOYJ/s9DGN+HKccYXrX62IDAnI/7N/7cFtiODRXqbBcZhe3TfI24D+1rTicYBMjK9gLis1LL44IAwQa8AdRow1FGD1M8/q0M0LaEKGM3boZWqpIYGV+qspzb59NlmOGF3ffq9WPCXjSYP6Quv0uR2W4L0xMJkBbqfahNyf5lUPa4zuh8M0ytdIajGOnccPacYouyeBAAgSG5ZZJTFh8fcUXSvuQ9lY8zRD6pETy4LFVwNyZmrm9II04vmo0OPViZl1cobgKSId/YTZhBPKzh9VvRrDtidr1XSpNQkQIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA3XFA1NUQLSDW2nTg09AQ4pKN/P0JWBpTjHBd6w9CQLwBxmxgfvIHpZJagk16Rz+vhHX2y1/qca3yN2uFU0FijaUxhmmh0BeQYxr9KAmIS0ArH3G+wi+PHsSmIbn4G+k4Ml61QRmqLuGu+0z96wJc1ziiu+hgVa3r0N2vQWBITzFxrrl7gU1aF7JmnVV+VX9B+lIwauxXjiQvLefVef+UdfqFfKsH5fC37t/X9pL/LIh/pQrWyJGueochy3kRTMjTP1nK6kGIzJ58x9w1fsL+oilUaH2aT109YxTBa4l9CGwwK7BAbfUsw3YZLEkEGfdF3gMPuNRk7a/WM8juuhu7jQIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAtDUF7g3zQ9Ol+lwC2IcWf98UHX7eJ2K/8PnkZ0nMyCLxDlcbW5FVrEsduB9t7kkzUO0vzWQW2kvAa2Jt6t4G6q7Qwk8tyaEcLpZnvVd6y3RFO0RLEpla/LnctQXEQKgi6jwJ5PiTdAzIsxpzGmoJONM3x9DVA3m5BK83Y0UCcz+ckYlIN/jYBNwyRhHxAAZjKFlC/FEhtSg+frw5tT4Ne6D/N0cYmR3f3gyazYtGQguakbg9hM28vniIzJ7lRLBab050pdtp8cQE7IB/Dt/e2EremGqgN4wIOvHxjEpCuRC8QB61MSK8sgOvsjTozfyyUAFMF+nx3VluuRamPZkiTwIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAtWyxhcNDBmoDBNul4jlSixDLNJYvSAzA2aYXWYNiGkHDRhHhFMpvhDaejJX5zrJRXV9aOJGbOx8WGruiGG6ufH1E7ZHuOQhPHphf47FzHYrezqissoegcAL1iTewCKMOWAe3dHApW676r5MiVHqIzVPIrOVaJNBp/iBM5UA1WaAcif5fs/TaaAI/MqeMMJ4y0t+sNpq6AXBihH9Nrq2pEZWB5yfYpY4QpzcJ3vkLhjsA5xTXbaTFqi8nSqdYOL0tC4Fg9SRTKBeGoK7zvrSG9jAXF9i98ZYo+9gpYHKwKixZ2eDJhou+a95dVMlak4QIqkDNq6kkGsxZgBBpFm4tmwIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAu+AFTthl5MGAmntBXFP92D4AAbgMqLhWtl/ICfBzagZOD2mh6waGBrpkU/iM3OxaCjHSDB6aGEpvKqAl0lce45iuH5P3nyisFg0aYBewZBAY74RszPm7gTypgiXB+FH4SO+c2S2b31geG0EyQlQwyOTm/i2upXg1ccRoFqoZ9Yje7F5OhRTUYRXYMbfgYs9k1AMfUs9I2nQxq/3YDJBCcdwx6hjY3IqMORWFWWVns2iUh/zLHYtHJNgxnnlsOkRWBJkIdAF+Xf9HJDZ2szyO/D/JHl1kK/eX30Fqh8/WTZRot5gSlvxhM4I7b9HCrBK6qvJ/SRjm/KZVagW2kBfvfQIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAqiDswJFIMpuH+/HsB/pJNDH8SRhylDsoJlpOVxbr1WPh549sTJ1W4lABYlapFxNWzkJcXpgURR7wDZFwSr0tfJMbx5F89iHCPHXzRWjzsxit0qReXnE9XN3IIrTvFsQzWv6hf5xWtG0lqq/E7TDBReiS+8cfEp64pPyX1eInoL2KdU/p29tTubDc4JxbgLS9oiPEkyU1f99DER7YxdZ2+Xg1GPQeJWV/gF27jxwCb9l7d5n6PP+ESb61BvYYwGbSL8cDLw63bqMMfbzjnetMW/mUdZt34zsjSOvC00iLKqhiVXZHQ0zQDBhyLqwyNjMln8biVSuChcrcbE9AP7IF8QIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAlgkJVv6lccxiqPAyTwMkWerCnzO0Efgb4k6teAcyeM/neBFCB4iYQBHuKoLh2ikev1+C8l0sfd/BbOzs0d19r0PASHO6BnPDqs3MttdPv7PMMZDx+eEPPExfNv7ycUjggisFvvLcAf6wN9KqLskVbaad/EpIHdNRjQsBcVzkMEyshYYBxxq7cNT7yiBEJgXuEWGUPL8HtDYwMPOVPRzLRi2VW4hyGhbBa1dxT95D9UaqHfjXCUPIw8FMS4KbS03LtmkT7T9XM3cgO9QWpxU0Pt0qpV7cJFf7UquV13gpmZMreqRW+Ym8ifdZXav2K/CANJBCAGY4CKW7B1r2VpPV6wIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx1YrbqlQgU+tB6RDpAeHRtk2m9b/rUvD7y7cBqb0OGvxgGwRwesAuwwFuRtovUcmWAZHQwXo0s+X2EA89b9uWZH0ld/f5EslshMCyXzKGlDFuDtrfpXLjNy2CtNfQn1xT07n7sMqetKlA3OoWY53TZOYoSftijxUiXqj/dqS8LOsxnYyj4zeWoLjLaOkMxOItfLU8RBvOPbTMeGkO+HL6ZubseKBeBQpX3w6eb0tVIdtlGj6c9AkwIhGmzqvpOYe+JtXG8pmyMEEFhbthqfJkT/Eb9cNPywmdtT9thmFYnhQwycKmacYOr0VuDJjFmmkZP7ID2rW6CJa0ImDEHnVqwIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA2PxG/14icJp13901HIHGnSjCGyO/r+4BmGD2YlGqwJgHGSYBV6gjo7Z59plgxepJaE8t5yYGdkY1h78/vDLuTd8lvouATGRVnUwmItO/NRuZSCZuS1Aly75M/CK2P3hOiJknXB7n0VfJdWIhjdc55u0tCtRxRtyDmUrCbMi9zP/tyqqRkrQTwNBnRB/WKqWT5DeIMzn0HD6wbk11fOQ4VldzM4Xi7oo0OLyRASJ/YCk5Hv9+b5IdaB2+m3QWj4uc1ukpH+Ou/Kwyhz8ZiYbJAG4Fui3/lXxeDZXIWyWWmxnq/vb81T93dm4tTdDwXy0QKV8XdJeDh2jxxElj7uP0MwIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAttdO8YVMQMtlqWp9FJ0O9/L1+aIP+xGkLvTUjlxxVO9gM77DPrtTsbYiFvj2yVA7e00+/AnSQ1/a0qi18tP9JvURY5+YvNWocmnpYv74PrFlmMBs06GUlcChlVqzmZSb2d9eHIxmHZ0IaAoP6btuKxlLmE1ckGC2yexdYNCkqKKZIc8okXF4ZATH0jYZjjU3E+Hkq5qXvVGzTDPaRSOKSvGyolW/QvXURhc3dsKP3faPq/UPsB+DcNdjFducecvm/Y1J1PipwOmwGqzmDcciQTNEagi/BWasP6+n/9TD+mr/v4e+pCXFghmq2qUvyb0lCCbn9juUsxovwIblhtXGPwIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0r4h+raC6N3gQ5TL3gnmHH/SvFxolukn9CwnaCtuScAEY42MSSwaZXGVlvstaj7m62yWWhmae7mFYFvTniJjhPAxeC103fxczuCL+qzyWWXqXYSCgPHTUyZLgvNsiFhe4HqZPcDCPI+ClawSJ+itfNb+EkSKGGyIz19O/4w5eoXG2X87tK5CHeWK+jlEpi5ZfOjXUZd0jwu3ZDLCW4WF8mfF7su5tDg+Cw1NsycL/oZqC2JAVlQZKrPSFzurV7et2QR8VoaoMyrRTkEfmPi3V03+4EWfZKbaq8Xb4tMvpP83M8aapYFkAMnyOxA2PNI4/I5qIaxzlezHniwS/XXH6QIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAqci65HT1BQ/fOy3lr+L6Okh3cXRIAEqYdtOWZhiAfFmYAheTMBWMvCuZizyxvCUVDcJGSHf/PI33AW2j4jcs4VHTIDF0lZpx/S5DfJB2aJ82xqkgAXiBLSD38LDari8BYUBlooAg7EwFq+Ok4WB8377fPi5nZL0UpEP3wUZHIpYz9NtL1U57tOdcWp45Bp7tyl5m9sOsfTjiOfK/BC4i32PkNVe2LgSps2WWsLhcQAwule6O8UgkO8OsOhe667FPyYKdA3B2vKx4+zBCdyBe3R2cBKqncR6z+OehStdVtwFH1yF/77pKrXDeCcKq9QRLSrjnym1CrMryfH+NEBpY4wIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAun7ja2X4gTUWLZ93NGbZwZz3l1MtRlJlmrzlxtto/125FQDl91qRvX2jAyxC8PbOUD/j0qmAe/+VcIiV3USu3ndJ/04Q1dABMXZGzmqUw+cvY54xDgs8CjytfwYX4s/JCapJlcpxUJwdn/rSt7AJTBxNsTp8xd9zRjAiiBYHlZVQ+tIoMTYbm0rnqzCEa0tMc0zNaEQOje2re21aApPuKJ78UfhtI9tLSYmd7JGoT81DS1B5Aqou7vv5vxa7qQUWCRRL7mBugzm5fqAa7ifHNeTR1O5V9umy6/xbesph65JtNi9H4U/G7zLW+Yx7bralUz87kFL5Tqb+77wM55MKjwIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAs1pn4+LP1N4plAISWT4FqU2bVujDcLVMaoHw8oNbfvmncXqkkUwwkgdOyV8IwUZazXNkXinKRU2Lr9vw3zZKEgNJO4bknaF4KHkB+0/Xl4c3pbwN7NI0WP/BSi/Wxe7plG3dREORO3qpXVFQhi1rmpx7eJSMTvLUhVlh2reCwd6nEq0LAn2fAhaJ/IdD9dAGinuI7IRXGUowgCeIfdShsMFtJx7MTHoovLVfPGsUqT8LspZX/KbGY3YadCxEmWzh4glrTqG9Zulba3P/VbHmLxYENThYWLMm70CeTEj3zPfdvfO1MlgkQs4D2yQZ/j/95XrkBVgZDpoIG+H/JGBV6QIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAuyt+RQvYxunaZtfQ2lM9nAR6P7rXlvsxUOYM3O4GuuhC4Xkdx82VsGXlOM/wULdsC5Yruv/StOTFIf5PPA0ChvZa2ML6XgPqw0nvPLiN3x/nU83pBLAUiCgd4reoOWNl6Z9MnZuZ6szbOP3IvC7PpuVOuIfaYCPj/kySIPflvhfMZub1vU1XbHUVYXoKbV+3ujeXtlpp7uIe2LfRUONcy9d2IYfXaEWaOpzYz5BEACtvCEEB0MfzXWNyaHz7law4KErO+Tq1/n8+hEBwQeo5WyokJZlnjNwNy77o4tf3BWNoxSrW5tYOU7b+2H77sc7P6ZF75xrvMVOp4a7WpHcFUwIDAQAB</t>
+  </si>
+  <si>
+    <t>MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAr0ccQUB5AXusyBMROzXeASx8jqZ9m5jAcrlx0wZ1opvLJTO0Zfa5Vtsmk7JR6l8snYnYxAFazQ1r32DVaLINoh/2GJwPUYwzbsQR2APlTchVYZkORmJPVBwXWHLpbpIz3OU19OE3Y3PkZiy/9slsrzKQg13mwA73zS7BFtqdG9xwqTm1kqPD1u5jjEKkECC+WTKNkyanB/m58K8NpjlgISeO19v2xwzejsgfCSJYNGKKd8RAMSkblOeIPlFW8pQAXxq+LsFnrsQmatuhSyXv+/DJkZND9s/sTK/d/hdG/AU4fs3Fjkthrlvn/Aw0QBCLBmVtEphKMrTiC/SzWpNn6wIDAQAB</t>
   </si>
 </sst>
 </file>
@@ -93,39 +104,365 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <name val="等线"/>
       <charset val="1"/>
-      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
       <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,30 +470,305 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="50">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="28" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="11" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+  <cellStyles count="50">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="2"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="3"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="4"/>
+    <cellStyle builtinId="20" name="输入" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="7"/>
+    <cellStyle builtinId="4" name="货币" xfId="8"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="5" name="百分比" xfId="10"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="11"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="12"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="13"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="14"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="15"/>
+    <cellStyle builtinId="22" name="计算" xfId="16"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="17"/>
+    <cellStyle builtinId="28" name="适中" xfId="18"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="19"/>
+    <cellStyle builtinId="26" name="好" xfId="20"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="25" name="汇总" xfId="22"/>
+    <cellStyle builtinId="27" name="差" xfId="23"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="24"/>
+    <cellStyle builtinId="21" name="输出" xfId="25"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="26"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="27"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="29"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="30"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="31"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="32"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="33"/>
+    <cellStyle builtinId="15" name="标题" xfId="34"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="35"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="36"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="37"/>
+    <cellStyle builtinId="10" name="注释" xfId="38"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="39"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="40"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="41"/>
+    <cellStyle builtinId="8" name="超链接" xfId="42"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="43"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="44"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="46"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="48"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="49"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -165,7 +777,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="303030"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -449,71 +1061,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -532,58 +1088,58 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="n">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -607,57 +1163,205 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
